--- a/Cuadros/q25_counter_anti.xlsx
+++ b/Cuadros/q25_counter_anti.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CAC755-741A-4F4C-A569-AF38911AD76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="q25" sheetId="1" r:id="rId1"/>
-    <sheet name="q25_q4agrup" sheetId="7" r:id="rId2"/>
-    <sheet name="q25_q5" sheetId="2" r:id="rId3"/>
-    <sheet name="q25_q6" sheetId="3" r:id="rId4"/>
-    <sheet name="q25_q9" sheetId="4" r:id="rId5"/>
-    <sheet name="q25_q10" sheetId="5" r:id="rId6"/>
-    <sheet name="q25_q10_media" sheetId="6" r:id="rId7"/>
+    <sheet name="q25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="q25_q4agrup" sheetId="7" state="visible" r:id="rId2"/>
+    <sheet name="q25_q5" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="q25_q6" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="q25_q9" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="q25_q10" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="q25_q10_media" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="q25_q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>q25_counter_anti</t>
   </si>
@@ -134,13 +128,56 @@
   </si>
   <si>
     <t>Specific AWID subjects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q25_counter_anti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGTBIQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex_workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti_caste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countering_anti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harm_reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disability_rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don_t_want_to_answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -466,14 +503,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,35 +518,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>247</v>
       </c>
     </row>
@@ -520,14 +557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -538,47 +575,47 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>185</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>50</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>197</v>
       </c>
     </row>
@@ -589,14 +626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -613,71 +650,71 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>16</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>31</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>496</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>72</v>
       </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>202</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>34</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -688,14 +725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -718,95 +755,95 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>39</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>158</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>299</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>66</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>73</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>123</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>33</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -817,14 +854,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -844,83 +881,83 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
         <v>5</v>
       </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>14</v>
       </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>68</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>188</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>111</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>128</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>81</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>53</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>53</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>44</v>
       </c>
     </row>
@@ -931,14 +968,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -961,624 +998,624 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>2021</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
         <v>51</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>101</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2021</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>85</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>32</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>90</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>2021</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>63</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>35</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>29</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>2021</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>86</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>37</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>18</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>60</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>18</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>17</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>2021</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>65</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>27</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>2021</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>91</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>47</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>14</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>2021</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>20</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>7</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>2021</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>23</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>22</v>
       </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>2022</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>37</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>8</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>104</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>2022</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
         <v>69</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>26</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>103</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>2022</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
         <v>73</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>35</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>33</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>2022</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
         <v>95</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>48</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>27</v>
       </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>2022</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
         <v>57</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>16</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>17</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>2022</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>84</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>30</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>12</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>2022</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>7</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>109</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>46</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>11</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>2022</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>12</v>
       </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>2022</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>28</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>25</v>
       </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>2023</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20">
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" t="n">
         <v>123</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>2023</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
         <v>63</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>26</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>112</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>2023</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22">
+      <c r="C22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n">
         <v>64</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>25</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>39</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>2023</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>5</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>114</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>45</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>32</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>2023</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>7</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>68</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>24</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>12</v>
       </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>2023</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>5</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>90</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>25</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>22</v>
       </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>2023</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>7</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>118</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>51</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>16</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>2023</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
         <v>21</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>20</v>
       </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>2023</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
         <v>33</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>25</v>
       </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1589,14 +1626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1616,183 +1653,183 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
         <v>33</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>109</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>72</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>28</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>102</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
         <v>67</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>32</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>34</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
         <v>98</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>43</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>26</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>62</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>19</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>15</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
         <v>80</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>27</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>14</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>106</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>48</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>14</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>13</v>
       </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>28</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>24</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1800,4 +1837,178 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="n">
+        <v>583</v>
+      </c>
+      <c r="C4" t="n">
+        <v>182</v>
+      </c>
+      <c r="D4" t="n">
+        <v>244</v>
+      </c>
+      <c r="E4" t="n">
+        <v>113</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>182</v>
+      </c>
+      <c r="H4" t="n">
+        <v>108</v>
+      </c>
+      <c r="I4" t="n">
+        <v>61</v>
+      </c>
+      <c r="J4" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="n">
+        <v>247</v>
+      </c>
+      <c r="C5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" t="n">
+        <v>113</v>
+      </c>
+      <c r="E5" t="n">
+        <v>51</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>87</v>
+      </c>
+      <c r="H5" t="n">
+        <v>101</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Cuadros/q25_counter_anti.xlsx
+++ b/Cuadros/q25_counter_anti.xlsx
@@ -14,13 +14,14 @@
     <sheet name="q25_q10" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="q25_q10_media" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="q25_q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="q25_region" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>q25_counter_anti</t>
   </si>
@@ -170,6 +171,27 @@
   </si>
   <si>
     <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Latin America &amp; the Caribbean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Western Europe &amp; North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Eastern, Southeast and Central Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Asia &amp; the Pacific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Central Asia &amp; Caucasus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. South West Asia/Middle East &amp; North Africa</t>
   </si>
 </sst>
 </file>
@@ -2011,4 +2033,163 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="n">
+        <v>583</v>
+      </c>
+      <c r="C4" t="n">
+        <v>188</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62</v>
+      </c>
+      <c r="E4" t="n">
+        <v>47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>217</v>
+      </c>
+      <c r="G4" t="n">
+        <v>131</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26</v>
+      </c>
+      <c r="I4" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="n">
+        <v>247</v>
+      </c>
+      <c r="C5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>82</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>